--- a/public/excel/template-wali-kelas.xlsx
+++ b/public/excel/template-wali-kelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7228615-DA1F-4DCC-AD96-6588E1085588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C92AD-A53F-47FF-A3C9-776E301E36B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F795CCD3-849E-49BA-A70D-9EC79822ADA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F795CCD3-849E-49BA-A70D-9EC79822ADA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t xml:space="preserve">MASUKKAN
@@ -107,67 +104,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-SILAHKAN MASUKKAN KODE KELAS
-DI DALAM SYMBOL []</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PETUNJUK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 SILAHKAN MASUKKAN TINGKATAN  (X,XI,XII)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PETUNJUK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SILAHKAN MASUKKAN KODE GURU
-DI DALAM SYMBOL []</t>
     </r>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[1]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +500,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,15 +511,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -592,14 +529,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="1">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
